--- a/data/trans_dic/P40_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P40_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2489762909277467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2488367008935237</v>
+        <v>0.2488367008935238</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.207766877402899</v>
@@ -697,7 +697,7 @@
         <v>0.2937217554795918</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2888477372990344</v>
+        <v>0.2888477372990343</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1188124431019588</v>
+        <v>0.128272092341693</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.17422916638702</v>
+        <v>0.1736335574361488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1978117788233493</v>
+        <v>0.19867756970442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2071050859636874</v>
+        <v>0.2062466215810606</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1589895658667157</v>
+        <v>0.1627722230645804</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3287800526359098</v>
+        <v>0.3332502793292512</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2852008528736892</v>
+        <v>0.2842463569300833</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2920737077651687</v>
+        <v>0.2911920618817738</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1543670158861877</v>
+        <v>0.1542968557636738</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2652629557567532</v>
+        <v>0.2694216788904211</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2547151343025837</v>
+        <v>0.2560816361015434</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2622342890801174</v>
+        <v>0.2594106568635604</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.216077735609721</v>
+        <v>0.2174816356896569</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2701442705794578</v>
+        <v>0.275742529824318</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3012867078470303</v>
+        <v>0.3072164244041891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.293789219685795</v>
+        <v>0.3015716902921038</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2593154472475915</v>
+        <v>0.2726303316769571</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4572150479613462</v>
+        <v>0.4559108788594118</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3983002087840065</v>
+        <v>0.3913257036836225</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3762106775915441</v>
+        <v>0.3745533150397262</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2273688539675115</v>
+        <v>0.2194321134686648</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3451788727210216</v>
+        <v>0.3497595644368296</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3333936827141272</v>
+        <v>0.3358783382926767</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3214823284245985</v>
+        <v>0.3211908008988694</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1203672890287057</v>
+        <v>0.1191194645388673</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1267325427693643</v>
+        <v>0.1265062427554114</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09057279231325516</v>
+        <v>0.09002870319466832</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.123048265752195</v>
+        <v>0.1283555365172452</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2464853722230266</v>
+        <v>0.2468916141969932</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2627534332994522</v>
+        <v>0.2659592482223904</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1904744367653553</v>
+        <v>0.1897482778100631</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1949414484773675</v>
+        <v>0.1936554426885871</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1935475958377739</v>
+        <v>0.1910993584263211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2076082906026382</v>
+        <v>0.2065901247856314</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1492528352125287</v>
+        <v>0.1455382570580807</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1690668426202871</v>
+        <v>0.1693084405707945</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1847410918169133</v>
+        <v>0.1895485308673986</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1984400844384737</v>
+        <v>0.2012716848912529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1519374757621715</v>
+        <v>0.1480330096639003</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1980331728384376</v>
+        <v>0.2000173041517296</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3244803338515758</v>
+        <v>0.3252276697913439</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3443942531050333</v>
+        <v>0.3448974872846957</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2636346227277163</v>
+        <v>0.2658293526529832</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2506186090731072</v>
+        <v>0.2518238565191203</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2464264186651197</v>
+        <v>0.2441225858312949</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2630753942714688</v>
+        <v>0.2617233731179144</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1982736993805007</v>
+        <v>0.1966149934488038</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2157067605725962</v>
+        <v>0.216436676088573</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2070626845868128</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2883046413908569</v>
+        <v>0.288304641390857</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2301747775512787</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1222759435200952</v>
+        <v>0.1241546038617</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1364448866448738</v>
+        <v>0.1358292908943627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1282698990695589</v>
+        <v>0.1283220906162893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1954771747591507</v>
+        <v>0.1893812748333769</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2518013517457526</v>
+        <v>0.2540640833509402</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2096010482975098</v>
+        <v>0.2136289513330061</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1612219925410662</v>
+        <v>0.1636912425096175</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2488973925279303</v>
+        <v>0.2512186312892051</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1983438997986895</v>
+        <v>0.2022345003644097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.18575339497329</v>
+        <v>0.1873985512289159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1553210595445106</v>
+        <v>0.1564163291684821</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2327769237872991</v>
+        <v>0.2327762075529253</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2071810613813458</v>
+        <v>0.2039674359730459</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2261786677640886</v>
+        <v>0.2256946866971574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2087431405372063</v>
+        <v>0.208970327641984</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2803826242800397</v>
+        <v>0.2774481104576632</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3542526708311104</v>
+        <v>0.3500684530675639</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3076108971557043</v>
+        <v>0.3116144889088988</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2576543410652565</v>
+        <v>0.2578190945114696</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3251218952521875</v>
+        <v>0.3282447553745558</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2669047064480845</v>
+        <v>0.2630419597740833</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2550829918124555</v>
+        <v>0.2523124876192548</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2185392418549043</v>
+        <v>0.2203343642476788</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2882040360725612</v>
+        <v>0.2891707349053294</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1814361420067705</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1982664496483723</v>
+        <v>0.1982664496483722</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2680559626604462</v>
@@ -1093,7 +1093,7 @@
         <v>0.3234209186237118</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2887180333895412</v>
+        <v>0.2887180333895413</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1997075484017023</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09643302269571234</v>
+        <v>0.09590240083829506</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1423812320639229</v>
+        <v>0.1463351117747488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.144672455523217</v>
+        <v>0.1454377356397879</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1566296802790602</v>
+        <v>0.1524708274472672</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2230271300429048</v>
+        <v>0.2269467609385306</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2897841586991231</v>
+        <v>0.2879681894562897</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2736868312893734</v>
+        <v>0.2757803974602026</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2535258902570064</v>
+        <v>0.2504100425941254</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1711518167829559</v>
+        <v>0.1700834272535856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2309601762285831</v>
+        <v>0.231394661303749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2225681096648875</v>
+        <v>0.2190854696766361</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2154953598441584</v>
+        <v>0.2164406665374876</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.168220277630733</v>
+        <v>0.1664097747757812</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2282198854963056</v>
+        <v>0.2311752815757804</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2229387323371073</v>
+        <v>0.2225371062573162</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2557894760360483</v>
+        <v>0.2496610310884123</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3131332020752589</v>
+        <v>0.3130544553185142</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3861931900702377</v>
+        <v>0.3877417290594289</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.378577778181347</v>
+        <v>0.3757729849506353</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.334001242118988</v>
+        <v>0.3330223062383</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2282776962462073</v>
+        <v>0.2293001254911449</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2974042801519807</v>
+        <v>0.2943939331139972</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2895893769636678</v>
+        <v>0.28539080616787</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2750405802940522</v>
+        <v>0.2792041208924939</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1903966790714332</v>
+        <v>0.193493097792064</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1341013715545307</v>
+        <v>0.1343946216782622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.11377861523319</v>
+        <v>0.1153178773283571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09766726973501004</v>
+        <v>0.0970534415935292</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3152509034657684</v>
+        <v>0.318282441296255</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2545945685378059</v>
+        <v>0.2529470192968495</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.214945026966028</v>
+        <v>0.2167464446439558</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1823922163580587</v>
+        <v>0.184733104664653</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2749037149328448</v>
+        <v>0.2758577520975535</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2123650939409851</v>
+        <v>0.2058751441374079</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1784215933265182</v>
+        <v>0.1799778650696997</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1498655488608896</v>
+        <v>0.1494140028361422</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.310235227033606</v>
+        <v>0.3172567003857372</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2447545288127199</v>
+        <v>0.243931664439922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2096191866895317</v>
+        <v>0.2153230447271405</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.173305739971882</v>
+        <v>0.1726085392941713</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4642875892442441</v>
+        <v>0.460317285083555</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3832298295884198</v>
+        <v>0.3749604026786407</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3339306090666828</v>
+        <v>0.3416703962401007</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2533797377181429</v>
+        <v>0.2538687914730689</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3625440447693085</v>
+        <v>0.3655427488298313</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2957735111528657</v>
+        <v>0.2955788700469292</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2608697991741475</v>
+        <v>0.2584602345487548</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2021312000680257</v>
+        <v>0.2013738324263407</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2854886063396497</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3342183188011449</v>
+        <v>0.3342183188011448</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.249622968438284</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1062511921898609</v>
+        <v>0.1063854421347288</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1377752334586747</v>
+        <v>0.1402708030865427</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1509737125481946</v>
+        <v>0.1553569158691949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1815728132036432</v>
+        <v>0.1822415696198733</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2974957418618244</v>
+        <v>0.2979293484027956</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2151099991834981</v>
+        <v>0.2197401789981207</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2305831387448094</v>
+        <v>0.234140625388169</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2931614204401068</v>
+        <v>0.2925434908612301</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2151568346647376</v>
+        <v>0.2127814828375625</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.191189724599126</v>
+        <v>0.1940990106069231</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2051100333272955</v>
+        <v>0.2023603869617382</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2495153297006833</v>
+        <v>0.2486658752842218</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1910552389006973</v>
+        <v>0.1950268969437611</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2377332017830406</v>
+        <v>0.2400949744803102</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2440718172392738</v>
+        <v>0.2529639074103129</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2675623302302293</v>
+        <v>0.2677518990275803</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.409141582031204</v>
+        <v>0.4134177138895865</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3178702142055028</v>
+        <v>0.3266008303253451</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.34163805736732</v>
+        <v>0.3500162599590057</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3757260158128038</v>
+        <v>0.3785427863443174</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2862765801076756</v>
+        <v>0.282201510924255</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2604546517199731</v>
+        <v>0.2640196963065796</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2835720537619305</v>
+        <v>0.281734635581406</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3065850570941456</v>
+        <v>0.308250559888936</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2097223917519989</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2154319309008489</v>
+        <v>0.215431930900849</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1142961112698654</v>
+        <v>0.1147547215470612</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1276693843899149</v>
+        <v>0.1291580252104662</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1289225696509791</v>
+        <v>0.129898209731031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1339726506435276</v>
+        <v>0.1337344208135444</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2486920945207118</v>
+        <v>0.2471880834644707</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2153063890678682</v>
+        <v>0.2138918997311863</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2285712942265705</v>
+        <v>0.2281791317572217</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2388844759306573</v>
+        <v>0.2387108564872775</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1904183092424872</v>
+        <v>0.1923293525024743</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1812027835288761</v>
+        <v>0.1798694173702088</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1866874914432482</v>
+        <v>0.1871159097009093</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1954032623629111</v>
+        <v>0.1945788464142554</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1699285179672486</v>
+        <v>0.1741841414286421</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1898101914490535</v>
+        <v>0.1928572927302589</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1870277002811543</v>
+        <v>0.186540769698911</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1905794357430299</v>
+        <v>0.1903418871821339</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3208268246274979</v>
+        <v>0.3195178166312169</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2847397396458917</v>
+        <v>0.2837591525185605</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2971708004873739</v>
+        <v>0.2981627471934845</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2964719640901475</v>
+        <v>0.298023044502969</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2373917921367616</v>
+        <v>0.2403665253612806</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2266174527924622</v>
+        <v>0.2271401074476718</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2319462502564824</v>
+        <v>0.2308939234455473</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2352346119660749</v>
+        <v>0.2349228400661377</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.19397745634703</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2834055023505333</v>
+        <v>0.2834055023505334</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2198768595359491</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1492970249637124</v>
+        <v>0.1508120716333848</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.119763264950581</v>
+        <v>0.1199471812772772</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1089833077414334</v>
+        <v>0.1090708534910409</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.157671610238364</v>
+        <v>0.1596402425020175</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2323797419421816</v>
+        <v>0.2316681090728899</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1602011449233603</v>
+        <v>0.1589309543020359</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1662720788191117</v>
+        <v>0.1630099289947021</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2571832352038383</v>
+        <v>0.2572238517102436</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1997826897421663</v>
+        <v>0.2010709659789865</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1500380795755739</v>
+        <v>0.1492378642550405</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.144078508700703</v>
+        <v>0.1457133313022117</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2163659550922221</v>
+        <v>0.2150412872481411</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2042654044158469</v>
+        <v>0.2040376334363459</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1739057423007941</v>
+        <v>0.1737523156484713</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.160189909634154</v>
+        <v>0.1595224371797084</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2120087939520866</v>
+        <v>0.2100954526804789</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2979991722719116</v>
+        <v>0.2963089959641765</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2191321638388033</v>
+        <v>0.2158575388159306</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2249396528968225</v>
+        <v>0.223587362742966</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3102418638412727</v>
+        <v>0.3121292013422529</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2418035912645334</v>
+        <v>0.2417211333595379</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1896031757060369</v>
+        <v>0.1887269115621732</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1837184300474957</v>
+        <v>0.1847497684329795</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2543551754498984</v>
+        <v>0.2538182940520707</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1469235348086214</v>
+        <v>0.1476316804644142</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1547903336427044</v>
+        <v>0.1568616509540331</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1474156721142257</v>
+        <v>0.14683990600901</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1747623120139627</v>
+        <v>0.1726949354520423</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2690716754429285</v>
+        <v>0.2698642362474384</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2545420811720583</v>
+        <v>0.2546412928195957</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2355410011492082</v>
+        <v>0.2366525358226369</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2634533999736892</v>
+        <v>0.263461841362173</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2129795795696373</v>
+        <v>0.213429527314259</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2099048681617678</v>
+        <v>0.2109125802299619</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1964164342721884</v>
+        <v>0.1963208416829834</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2225750091258417</v>
+        <v>0.2234473046945299</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1729439930733341</v>
+        <v>0.1731367907260616</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1824032877987775</v>
+        <v>0.1835106954056111</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1710607056332636</v>
+        <v>0.1718419085449647</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2010602502130506</v>
+        <v>0.1999442715242942</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3011307680798105</v>
+        <v>0.2998451651283331</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2851459237694252</v>
+        <v>0.2858449494333751</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2654327143255668</v>
+        <v>0.2671154570327466</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2878868107266946</v>
+        <v>0.2874052296363016</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2341695858661786</v>
+        <v>0.2336515204656683</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2298997186876897</v>
+        <v>0.2320779347550173</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2166323961852996</v>
+        <v>0.2159155085533821</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2401859261862521</v>
+        <v>0.2416579445852227</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32437</v>
+        <v>35020</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>50655</v>
+        <v>50482</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>57428</v>
+        <v>57679</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>66034</v>
+        <v>65761</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>41471</v>
+        <v>42457</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>93436</v>
+        <v>94706</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>82338</v>
+        <v>82063</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>92313</v>
+        <v>92034</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>82409</v>
+        <v>82371</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>152507</v>
+        <v>154898</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>147485</v>
+        <v>148276</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>166494</v>
+        <v>164701</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>58991</v>
+        <v>59375</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>78541</v>
+        <v>80169</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87468</v>
+        <v>89190</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>93673</v>
+        <v>96155</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>67639</v>
+        <v>71112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>129936</v>
+        <v>129565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>114990</v>
+        <v>112977</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>118906</v>
+        <v>118382</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>121380</v>
+        <v>117143</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>198452</v>
+        <v>201086</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>193041</v>
+        <v>194480</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>204111</v>
+        <v>203926</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>59350</v>
+        <v>58735</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>63577</v>
+        <v>63464</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45417</v>
+        <v>45144</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>65295</v>
+        <v>68111</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>124216</v>
+        <v>124421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>137355</v>
+        <v>139031</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>99239</v>
+        <v>98861</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>106534</v>
+        <v>105832</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>192972</v>
+        <v>190531</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>212678</v>
+        <v>211635</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>152604</v>
+        <v>148806</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>182109</v>
+        <v>182369</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>91091</v>
+        <v>93462</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>99550</v>
+        <v>100971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>76188</v>
+        <v>74230</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>105086</v>
+        <v>106139</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>163522</v>
+        <v>163898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>180033</v>
+        <v>180297</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>137356</v>
+        <v>138500</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>136962</v>
+        <v>137620</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>245693</v>
+        <v>243396</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>269499</v>
+        <v>268114</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>202726</v>
+        <v>201030</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>232347</v>
+        <v>233133</v>
       </c>
     </row>
     <row r="12">
@@ -2508,37 +2508,37 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>38987</v>
+        <v>39586</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43960</v>
+        <v>43762</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40391</v>
+        <v>40407</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>61769</v>
+        <v>59843</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>84457</v>
+        <v>85216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>71478</v>
+        <v>72852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>53485</v>
+        <v>54304</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>88702</v>
+        <v>89530</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>129768</v>
+        <v>132314</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>123192</v>
+        <v>124283</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>100436</v>
+        <v>101144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>156513</v>
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>66059</v>
+        <v>65034</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>72871</v>
+        <v>72715</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>65731</v>
+        <v>65802</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>88599</v>
+        <v>87672</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>118821</v>
+        <v>117417</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>104901</v>
+        <v>106267</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>85476</v>
+        <v>85531</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115867</v>
+        <v>116980</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>174625</v>
+        <v>172097</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>169172</v>
+        <v>167334</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>141315</v>
+        <v>142476</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>193781</v>
+        <v>194431</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34491</v>
+        <v>34302</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>52406</v>
+        <v>53862</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>53258</v>
+        <v>53540</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>58446</v>
+        <v>56894</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>82845</v>
+        <v>84301</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>112455</v>
+        <v>111750</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>105472</v>
+        <v>106279</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>106978</v>
+        <v>105663</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>124792</v>
+        <v>124013</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>174637</v>
+        <v>174965</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>167707</v>
+        <v>165082</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>171342</v>
+        <v>172093</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>60168</v>
+        <v>59520</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>84001</v>
+        <v>85089</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82071</v>
+        <v>81923</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>95447</v>
+        <v>93160</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>116315</v>
+        <v>116286</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>149867</v>
+        <v>150468</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>145895</v>
+        <v>144814</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>140935</v>
+        <v>140522</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>166444</v>
+        <v>167189</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>224877</v>
+        <v>222601</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>218208</v>
+        <v>215044</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>218687</v>
+        <v>221997</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38541</v>
+        <v>39168</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28374</v>
+        <v>28436</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23493</v>
+        <v>23811</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>20087</v>
+        <v>19960</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>65468</v>
+        <v>66097</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>55679</v>
+        <v>55319</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>46429</v>
+        <v>46819</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>41371</v>
+        <v>41902</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>112737</v>
+        <v>113128</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>91378</v>
+        <v>88585</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>75381</v>
+        <v>76038</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>64815</v>
+        <v>64620</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>62800</v>
+        <v>64221</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>51787</v>
+        <v>51613</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>43282</v>
+        <v>44460</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35643</v>
+        <v>35500</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>96418</v>
+        <v>95593</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>83812</v>
+        <v>82003</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>72131</v>
+        <v>73803</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>57472</v>
+        <v>57583</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>148678</v>
+        <v>149907</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>127267</v>
+        <v>127183</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>110214</v>
+        <v>109196</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>87419</v>
+        <v>87092</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>28774</v>
+        <v>28810</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>37466</v>
+        <v>38145</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>39576</v>
+        <v>40725</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>49153</v>
+        <v>49334</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>82747</v>
+        <v>82867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>60010</v>
+        <v>61302</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>62976</v>
+        <v>63947</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>77321</v>
+        <v>77158</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>118111</v>
+        <v>116807</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>105329</v>
+        <v>106932</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>109786</v>
+        <v>108314</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>133355</v>
+        <v>132901</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>51740</v>
+        <v>52815</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>64649</v>
+        <v>65291</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>63981</v>
+        <v>66312</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>72431</v>
+        <v>72482</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>113800</v>
+        <v>114990</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>88678</v>
+        <v>91113</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>93306</v>
+        <v>95595</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>99098</v>
+        <v>99841</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>157153</v>
+        <v>154916</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>143488</v>
+        <v>145452</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>151783</v>
+        <v>150800</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>163857</v>
+        <v>164747</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>70187</v>
+        <v>70469</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>83255</v>
+        <v>84226</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>84204</v>
+        <v>84841</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>96418</v>
+        <v>96247</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>158275</v>
+        <v>157318</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>148572</v>
+        <v>147596</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>156032</v>
+        <v>155764</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>184432</v>
+        <v>184298</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>238121</v>
+        <v>240511</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>243204</v>
+        <v>241415</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>249373</v>
+        <v>249945</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>291492</v>
+        <v>290262</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>104350</v>
+        <v>106964</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>123778</v>
+        <v>125766</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>122154</v>
+        <v>121836</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>137158</v>
+        <v>136987</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>204184</v>
+        <v>203351</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>196485</v>
+        <v>195808</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>202861</v>
+        <v>203538</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>228893</v>
+        <v>230091</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>296862</v>
+        <v>300582</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>304158</v>
+        <v>304860</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>309828</v>
+        <v>308423</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>350910</v>
+        <v>350445</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>111046</v>
+        <v>112173</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>91514</v>
+        <v>91655</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>84645</v>
+        <v>84713</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>125833</v>
+        <v>127404</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>182072</v>
+        <v>181515</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>129984</v>
+        <v>128953</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>135625</v>
+        <v>132964</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>213804</v>
+        <v>213838</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>305129</v>
+        <v>307097</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>236386</v>
+        <v>235125</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>229425</v>
+        <v>232028</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>352547</v>
+        <v>350389</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>151932</v>
+        <v>151762</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>132886</v>
+        <v>132769</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>124416</v>
+        <v>123897</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>169198</v>
+        <v>167671</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>233486</v>
+        <v>232161</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>177799</v>
+        <v>175142</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>183479</v>
+        <v>182376</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>257914</v>
+        <v>259483</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>369308</v>
+        <v>369182</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>298721</v>
+        <v>297340</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>292546</v>
+        <v>294188</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>414447</v>
+        <v>413572</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>480987</v>
+        <v>483305</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>523567</v>
+        <v>530573</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>497264</v>
+        <v>495322</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>617394</v>
+        <v>610090</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>908765</v>
+        <v>911442</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>899839</v>
+        <v>900189</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>827757</v>
+        <v>831663</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>983962</v>
+        <v>983993</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1416555</v>
+        <v>1419547</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1452028</v>
+        <v>1458999</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1352816</v>
+        <v>1352158</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1617591</v>
+        <v>1623931</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>566170</v>
+        <v>566801</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>616966</v>
+        <v>620711</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>577024</v>
+        <v>579659</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>710298</v>
+        <v>706356</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1017042</v>
+        <v>1012700</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1008027</v>
+        <v>1010498</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>932805</v>
+        <v>938719</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1075217</v>
+        <v>1073418</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1557492</v>
+        <v>1554046</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1590343</v>
+        <v>1605411</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1492053</v>
+        <v>1487116</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1745581</v>
+        <v>1756279</v>
       </c>
     </row>
     <row r="40">
